--- a/steel/data/up-stream/铁矿石/铁矿石产量.xlsx
+++ b/steel/data/up-stream/铁矿石/铁矿石产量.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\Projects\ffa\steel\data\up-stream\铁矿石\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Document\Project\ffa\steel\data\up-stream\铁矿石\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F471335-3FA1-40B7-8141-3EF2DD692810}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC095154-D86D-4490-B9E2-C1097865FD25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1837" yWindow="2213" windowWidth="28800" windowHeight="14685" xr2:uid="{1B3413B7-895E-493B-9FF4-9973EBBB1A4C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{1B3413B7-895E-493B-9FF4-9973EBBB1A4C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -41,10 +41,10 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>howard</author>
+    <author>FUDIAN</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{E3D9306E-8356-4FD3-B151-1E1F1FB61884}">
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{DD6071F8-9A56-4718-91D0-A0F0B00250ED}">
       <text>
         <r>
           <rPr>
@@ -55,7 +55,7 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>yVjpCgZpNvPZnfieGxhyTT3hDliK9zT5hi7nh1TV/SFh4stFfpeJnzEuSZYDwb3vjpBLRFUQhKehFNRajbsZkuWxGQ1cmdxvp8wocXJeCWh844AGYCuO+JKcxyZaWPbrDWJH9hXmq4V+OZsbEnpyOglKLNG5yfgv6Gm4E3SslikQ1bMiWqDzN4+AHJ5yO3TmBhhFltVN0aMqWYEmmK3G26ZUAAYq/5/UyiKtWwJOUhDGYAcCJcSrCclft6np/7ONJ2ITdVhpd+q0VZluT836PGmqUoKFpPRtlAXmBUd4+E3AmnqXcEuj2sunDA0tDeVY1KoNKGTtl2+RiN5jIkQznwHFxC8/ktloRi7Gvewen0043HE8WXv0U7wCwgxzXJIV++kgxV6DkpPtp47XqSInCZAP8fcBDNQq8RRuOxmaa6A/e8pPwObP7QxiPP9nexiLJIJwig0K/9QL5v8FJd8VVFmJev7ufyTyWN/aoSGzo5i6p0yt47VF5sibOAK8aKNLQDEoURgIrOevQM3tpgJUdJb4uVEYkGo0oTr21Mops4Wm0PjUgDQkFQO7C6RbEts2fSiPyvaWhZu4AgJj0IuFWG+5Sp/2gWamcQlVAbWelU9Bo7Ypf/x+/3VAulg6TrcGIXpd+WCOIXBESvmtpiPWsDHcRlbdXuWR5KN4SiIiTnetu0VUHeeZLFs0dRq7hI6J19v8hkLlAC63isOu8ne0EpBrFfdWtV8B62/SV+FUw9afIeDDzAYlKNeS06wZYhiTHpVAyjfiq009iXUvedoTrIlMg08GeKzBfF8m5W8G5CD2doYP9wvH4SWx5mKYrcD+8tX5nXSqHzLkbXXhxsHFMopEiDWac0cpIRPi253ROe2ng+ydddCleMxXBLjVM7fEXD6aciq21DBNS7jmc2jKYquSQ/9naqw8EjJxYUbTJiTGSj3qhwQcYNmsbfH+OuaY4fsi5PaTxogkpn86CmfQVWLq9QDPSGgVPXr2xzgxdkXPvUoTiLVnjWcWWtxZX+sT25ih2c9Uq9w72+n+Y/el9CLhOhRLgk5fUXskxfacjdSWPhnlAnW1vdW1WvVjwkBigl019uR2k1vAhsC+N5fbNC5P3pcbBZd8NNZ+cGMioZ9NqJ0hCEOaEYItJjExu0w+nNTWyRnNtzDFnYaHu79o1tBjSDV0usUu2W5s5L9nWdaboB0ynA9BZVJYa6QNNbpY6PhsMiZdhSrUt+YKdajhx98YHGWABgm3pSQKnWYylHfQGjd6p40MJ4mfYRa3vB4u0bYgsdIKWz7I7LCmi3RBau9MGJfWG9Lg/pxdzR5QIbECbcj0oEXxJ+1YEIfxmmUnU/5SYd67r3QV+uhk8QnUUpSuOhlkucPoIAGVyCsNaQZ/bS4diNsDwj0yksltVLCIGBfoeT0UCNuVPdA2NKLK6r7GHImSg4TUSb6wsi325qD+287nZDarr6q+YFIsTv1jvJ3MDhHTW1POjy/ZN2uasIhDdtNxWz49EOIjJLnHVTpvBHhJgUKEvrP2R/PieD+sAYPHA57o5mIKR08tt1EeKGYdChN96pDZNnJlTw6Hs3Gj9HWIUVoUlw==</t>
+          <t>yVjpCgZpNvOHlEoAN60+iXcNR8qcjD2afR3U+XlDrUTEX5W5KWYQZl2WlS6znR8JdtRv8fy9hcGzGgX1t8jwbDwAx0EUQZsw3ZWNu8RJYhGO4TcQ9l1JkQHbe3Y9+FG0Tmzb5nAqIClWWKfYkQKr3HY3DNkUELEitQOt11rUEoTssMa5+fEiCev4K2/Iu15NwcYCZvRYEoAszdi582S6/Wpf0HPZFRJURz1OtHHZqd46aMQmND4ndUnFhuKGiqfxsovRYzpE9452sueSEzDiO8lHlfx27DJUQb+LLLVdOl5oatTTl386x4oyHlwOwG5b9Uau6kpVlyCdo2z/f0LD5wVzhQL5TCEY2d4J/LqzQ2aFtvZ0Qhi4D7z/XCRIkbKGS7soU2FusNQrf76mQpCGYmN46X/1qc0tbaE15Q7StJDyZ8S9PA/INC/CNm+wExg5x1Rp9nMclzb4dndb8QNeJVtgVxUOqNpgr+1XBvVjRXh6h/0MdQKjuJYgQ2IA8RaxzMeQM7FrOk12acK3CGQL5KAYJgmaK+KksqvswjUHiQw7gMP35gq3FyZ+wgzPy4yTCbwr3ij0j7xnOwWBOJv9S8FhwO66C+5bD57uDkiYmGXx6H7z5cyxrd/UxcOxK2rm6U5IbCNh8R1WDYcKk2A5qINaf6YjLajW+OUqtTFJoOxrLABkh4a4yH15aM+voQmLGHtUeaJPEM44lZVIT/NhWt7DzM7pQirXnfLDrQOJzCjoJDCrw0qVzXKJ7++IDFFTvNvEF2oFqa/1LF58pItj/z1k5YyV8ru2wlBXaUbyHE/svFHG5iIsMhqaDDq5JgoW4rv6IVMS72fHMxkia8WvnnliKorRalEFChKRTV7OjqXJb3DE/VO682eBlKQx8KpKbs/qGEJz1bjICKnLyCE4LXCfk/VDkEJ2Lvon0FLc6Q24oiBCFPdL79g3FwYv81iRZuloWmJDGW165FY1XuYJwtS9fXI1ow6yE7Co55qJXmd+B60J2fzkgME1r479sijngp1HejglhvjFGMBhxtqG73rCSZzwmLvFsJBCy5DIqTxlnQe6Fx2vU1uccBHDZm3U8g7A77WRLSjp9wztyMMlvADH71KjeA+5lk0RltZg6C/0P6Ot2VLLabtNsR2p/BYKrvIJdHffIFqYxM82SAZUtkMOXiqS16hgncYybVbZJi+I6MCsmtIwxFCBbyadrQEsvp71s335pkCUEO8gQE0awiPfQEkXXR3P5F1trZWKkq0tdT0rUp92EJHyfhGSfRXrOahG2EG27TZnmrkWXMwkLjlNQiMe+mp89Rz2noTWUsjedF5aUsM5Z+UuhBrb9dHLyB/9L6XIAtLmwGseaXVFsmJ8aMaaD29+H+/orEMdi7DKaXu8PdGIvQHiLQiqU/OPJn9ttvMyNQdecRfcKddxAG1SIb//KXl9OsT8Y5m+3FHc9gRn+F8KZ+UURg5TZvcW0wGyNTv6Iy35syoBU5cC2zngSWHwLeR4EPEDRROjURSW5cqxgoRW/muvARq0tR/g6SJyO3+e0m5fH42ZpHU6B5g69bqONWUMo0tulzyRjjKbZDkqP5etJg8RZI+nuPjU1TWcN6pVfZFc1pGde+0NIgy6dL4plzyDEzCHB/eIcXe6MhJmeNDqsuXjna12PfRXuLlNkpTXL0FhogJo+1xao56ezTsd4WyoRiw7i8nmU6dEk1Asf34AHywfJWdLxaCfH/WLwBYys3DmSlb7LDPkKSdq+lRPi0pBocxBBPXbSxgo6aQ8cq7tdoAbOKrKeCrBvPlasrJ/4HfmPSwRafGUOlFvtINnCPYdOBJNtmgQ+Tk9mDkJilVsWvTCEIaW/Z4bEvIHzx0oEimJ6MO1GWaojDpFv/wanbBGXgp4J80qcU2q8Vo9KN5Tlv5PLsw4oLpZ/4OSzOgK1oKPoZpWpZIIMmfvO/yvfYz3zU+QIBc6JsCj0U7ZxCAWvnE1zPafjALut41WqV6p4OAn0+Cq0eK5xTDbD8+jPp9VzG0FSwR2VoFVMQh+31EAgfQS4BSIYng/udejpxyqUgTq5bi19ml6n/gojtoyytdcAeemkFaIroHZZsVrUaH5ZMzpM37bE2nUo/kWVO2Y6gDmfUp70mROO3x8vh7TgJGrIzsFa/NyDfCLZZqg3Nr7FZFB5St3Vo99IgP+Y8YfaNOlaV0hX78vGKioPQUl3OVat4e7WiHs+xzhDWCNXBB6XRgKAiDV8MaLckX5PYrKI4Bi/UGgWgwHo0GrK6kO94/FAtLzuprxO64/G6m8nFB9XLQCdK7Bk4b3NuJZeZ5WU95Ttkt0Xw6z8NI3PrwF46ui</t>
         </r>
       </text>
     </comment>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
   <si>
     <t>指标名称</t>
   </si>
@@ -98,6 +98,9 @@
   <si>
     <t>数据来源：东方财富Choice数据</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据来源：东方财富Choice数据</t>
   </si>
 </sst>
 </file>
@@ -580,23 +583,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13501A87-3F4F-428E-BAF6-0356460FD2E9}">
-  <dimension ref="A1:C144"/>
+  <dimension ref="A1:C145"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A99" workbookViewId="0">
+      <selection activeCell="C145" sqref="C145"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.9296875" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="19.06640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="18.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="str">
         <f>[1]!EM_EDB_N("2011-08-24","2023-12-01","Columns=Name,Frequency,Unit,Source&amp;Order=2&amp;DateFormat=1&amp;Chart=2&amp;ClearArea=NULL&amp;CellFormat=1&amp;Layout=0")</f>
         <v>宏观数据</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -607,7 +612,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
@@ -618,7 +623,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>5</v>
       </c>
@@ -629,7 +634,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
@@ -640,7 +645,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="4">
         <v>40786</v>
       </c>
@@ -651,7 +656,7 @@
         <v>818929108.92999995</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="4">
         <v>40816</v>
       </c>
@@ -662,7 +667,7 @@
         <v>946230054.46000004</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="4">
         <v>40847</v>
       </c>
@@ -673,7 +678,7 @@
         <v>1078484021.77</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="4">
         <v>40877</v>
       </c>
@@ -684,7 +689,7 @@
         <v>1205507510.79</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="4">
         <v>40908</v>
       </c>
@@ -695,7 +700,7 @@
         <v>1326939885.97</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="4">
         <v>40939</v>
       </c>
@@ -706,7 +711,7 @@
         <v>71515192.900000095</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="4">
         <v>40968</v>
       </c>
@@ -717,7 +722,7 @@
         <v>153082084.83000001</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="4">
         <v>40999</v>
       </c>
@@ -728,7 +733,7 @@
         <v>259600290.91</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="4">
         <v>41029</v>
       </c>
@@ -739,7 +744,7 @@
         <v>363247699.89999998</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="4">
         <v>41060</v>
       </c>
@@ -750,7 +755,7 @@
         <v>475498908.52999997</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="4">
         <v>41090</v>
       </c>
@@ -761,7 +766,7 @@
         <v>599872128.35000002</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="4">
         <v>41121</v>
       </c>
@@ -772,7 +777,7 @@
         <v>715286846.00999999</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="4">
         <v>41152</v>
       </c>
@@ -783,7 +788,7 @@
         <v>839019949.38</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="4">
         <v>41182</v>
       </c>
@@ -794,7 +799,7 @@
         <v>968106110.01999998</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="4">
         <v>41213</v>
       </c>
@@ -805,7 +810,7 @@
         <v>1091143550.8800001</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="4">
         <v>41243</v>
       </c>
@@ -816,7 +821,7 @@
         <v>1205710880.29</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="4">
         <v>41274</v>
       </c>
@@ -827,7 +832,7 @@
         <v>1309636100.78</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="4">
         <v>41333</v>
       </c>
@@ -836,7 +841,7 @@
         <v>175174710.69999999</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="4">
         <v>41364</v>
       </c>
@@ -847,7 +852,7 @@
         <v>288770814.98000002</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="4">
         <v>41394</v>
       </c>
@@ -858,7 +863,7 @@
         <v>398013288.95999998</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="4">
         <v>41425</v>
       </c>
@@ -869,7 +874,7 @@
         <v>516000000</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="4">
         <v>41455</v>
       </c>
@@ -880,7 +885,7 @@
         <v>646397552.10000002</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="4">
         <v>41486</v>
       </c>
@@ -891,7 +896,7 @@
         <v>772563193.46000099</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="4">
         <v>41517</v>
       </c>
@@ -902,7 +907,7 @@
         <v>904208306.96999896</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="4">
         <v>41547</v>
       </c>
@@ -913,7 +918,7 @@
         <v>1043415214.1</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="4">
         <v>41578</v>
       </c>
@@ -924,7 +929,7 @@
         <v>1178339208.8599999</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="4">
         <v>41608</v>
       </c>
@@ -935,7 +940,7 @@
         <v>1317196399.8399999</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="4">
         <v>41639</v>
       </c>
@@ -946,7 +951,7 @@
         <v>1451010652.6300001</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="4">
         <v>41698</v>
       </c>
@@ -955,7 +960,7 @@
         <v>183273371.81999999</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="4">
         <v>41729</v>
       </c>
@@ -966,7 +971,7 @@
         <v>307681413.29000002</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="4">
         <v>41759</v>
       </c>
@@ -977,7 +982,7 @@
         <v>427804183.62</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="4">
         <v>41790</v>
       </c>
@@ -988,7 +993,7 @@
         <v>568481794.30999994</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="4">
         <v>41820</v>
       </c>
@@ -999,7 +1004,7 @@
         <v>710598775.96000004</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="4">
         <v>41851</v>
       </c>
@@ -1010,7 +1015,7 @@
         <v>849400019.65999997</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="4">
         <v>41882</v>
       </c>
@@ -1021,7 +1026,7 @@
         <v>986041186.61000001</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="4">
         <v>41912</v>
       </c>
@@ -1032,7 +1037,7 @@
         <v>1123419000</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="4">
         <v>41943</v>
       </c>
@@ -1043,7 +1048,7 @@
         <v>1257901235.0599999</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="4">
         <v>41973</v>
       </c>
@@ -1054,7 +1059,7 @@
         <v>1386402000</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="4">
         <v>42004</v>
       </c>
@@ -1065,7 +1070,7 @@
         <v>1514237743.54</v>
       </c>
     </row>
-    <row r="45" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="4">
         <v>42063</v>
       </c>
@@ -1074,7 +1079,7 @@
         <v>175534008.53999999</v>
       </c>
     </row>
-    <row r="46" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="4">
         <v>42094</v>
       </c>
@@ -1085,7 +1090,7 @@
         <v>281154211.02999997</v>
       </c>
     </row>
-    <row r="47" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="4">
         <v>42124</v>
       </c>
@@ -1096,7 +1101,7 @@
         <v>384167941.42000002</v>
       </c>
     </row>
-    <row r="48" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="4">
         <v>42155</v>
       </c>
@@ -1107,7 +1112,7 @@
         <v>502444112.88999999</v>
       </c>
     </row>
-    <row r="49" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="4">
         <v>42185</v>
       </c>
@@ -1118,7 +1123,7 @@
         <v>634898749.48000002</v>
       </c>
     </row>
-    <row r="50" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="4">
         <v>42216</v>
       </c>
@@ -1129,7 +1134,7 @@
         <v>760985227.46000004</v>
       </c>
     </row>
-    <row r="51" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="4">
         <v>42247</v>
       </c>
@@ -1140,7 +1145,7 @@
         <v>885138413.98000002</v>
       </c>
     </row>
-    <row r="52" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="4">
         <v>42277</v>
       </c>
@@ -1151,7 +1156,7 @@
         <v>1015999061.86</v>
       </c>
     </row>
-    <row r="53" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="4">
         <v>42308</v>
       </c>
@@ -1162,7 +1167,7 @@
         <v>1135254000</v>
       </c>
     </row>
-    <row r="54" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="4">
         <v>42338</v>
       </c>
@@ -1173,7 +1178,7 @@
         <v>1252268000</v>
       </c>
     </row>
-    <row r="55" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="4">
         <v>42369</v>
       </c>
@@ -1184,7 +1189,7 @@
         <v>1381288000</v>
       </c>
     </row>
-    <row r="56" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="4">
         <v>42429</v>
       </c>
@@ -1193,7 +1198,7 @@
         <v>161875000</v>
       </c>
     </row>
-    <row r="57" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="4">
         <v>42460</v>
       </c>
@@ -1204,7 +1209,7 @@
         <v>261559000</v>
       </c>
     </row>
-    <row r="58" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="4">
         <v>42490</v>
       </c>
@@ -1215,7 +1220,7 @@
         <v>365072000</v>
       </c>
     </row>
-    <row r="59" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="4">
         <v>42521</v>
       </c>
@@ -1226,7 +1231,7 @@
         <v>471987000</v>
       </c>
     </row>
-    <row r="60" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="4">
         <v>42551</v>
       </c>
@@ -1237,7 +1242,7 @@
         <v>594038000</v>
       </c>
     </row>
-    <row r="61" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="4">
         <v>42582</v>
       </c>
@@ -1248,7 +1253,7 @@
         <v>709778000</v>
       </c>
     </row>
-    <row r="62" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="4">
         <v>42613</v>
       </c>
@@ -1259,7 +1264,7 @@
         <v>824700000</v>
       </c>
     </row>
-    <row r="63" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="4">
         <v>42643</v>
       </c>
@@ -1270,7 +1275,7 @@
         <v>941208815.39999998</v>
       </c>
     </row>
-    <row r="64" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="4">
         <v>42674</v>
       </c>
@@ -1281,7 +1286,7 @@
         <v>1059996551.8</v>
       </c>
     </row>
-    <row r="65" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="4">
         <v>42704</v>
       </c>
@@ -1292,7 +1297,7 @@
         <v>1162343000</v>
       </c>
     </row>
-    <row r="66" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="4">
         <v>42735</v>
       </c>
@@ -1303,7 +1308,7 @@
         <v>1280893000</v>
       </c>
     </row>
-    <row r="67" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="4">
         <v>42794</v>
       </c>
@@ -1312,7 +1317,7 @@
         <v>184158375</v>
       </c>
     </row>
-    <row r="68" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="4">
         <v>42825</v>
       </c>
@@ -1323,7 +1328,7 @@
         <v>298190000</v>
       </c>
     </row>
-    <row r="69" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="4">
         <v>42855</v>
       </c>
@@ -1334,7 +1339,7 @@
         <v>400902835.30000001</v>
       </c>
     </row>
-    <row r="70" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="4">
         <v>42886</v>
       </c>
@@ -1345,7 +1350,7 @@
         <v>508527000</v>
       </c>
     </row>
-    <row r="71" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="4">
         <v>42916</v>
       </c>
@@ -1356,7 +1361,7 @@
         <v>636623000</v>
       </c>
     </row>
-    <row r="72" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="4">
         <v>42947</v>
       </c>
@@ -1367,7 +1372,7 @@
         <v>751453000</v>
       </c>
     </row>
-    <row r="73" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="4">
         <v>42978</v>
       </c>
@@ -1378,7 +1383,7 @@
         <v>863879000</v>
       </c>
     </row>
-    <row r="74" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="4">
         <v>43008</v>
       </c>
@@ -1389,7 +1394,7 @@
         <v>975684000</v>
       </c>
     </row>
-    <row r="75" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="4">
         <v>43039</v>
       </c>
@@ -1400,7 +1405,7 @@
         <v>1081684000</v>
       </c>
     </row>
-    <row r="76" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="4">
         <v>43069</v>
       </c>
@@ -1411,7 +1416,7 @@
         <v>1160108335.8</v>
       </c>
     </row>
-    <row r="77" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="4">
         <v>43100</v>
       </c>
@@ -1422,7 +1427,7 @@
         <v>1229373000</v>
       </c>
     </row>
-    <row r="78" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="4">
         <v>43159</v>
       </c>
@@ -1431,7 +1436,7 @@
         <v>123464000</v>
       </c>
     </row>
-    <row r="79" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="4">
         <v>43190</v>
       </c>
@@ -1442,7 +1447,7 @@
         <v>189462000</v>
       </c>
     </row>
-    <row r="80" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="4">
         <v>43220</v>
       </c>
@@ -1453,7 +1458,7 @@
         <v>255001000</v>
       </c>
     </row>
-    <row r="81" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="4">
         <v>43251</v>
       </c>
@@ -1464,7 +1469,7 @@
         <v>321258000</v>
       </c>
     </row>
-    <row r="82" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="4">
         <v>43281</v>
       </c>
@@ -1475,7 +1480,7 @@
         <v>388221000</v>
       </c>
     </row>
-    <row r="83" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="4">
         <v>43312</v>
       </c>
@@ -1486,7 +1491,7 @@
         <v>447217000</v>
       </c>
     </row>
-    <row r="84" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="4">
         <v>43343</v>
       </c>
@@ -1497,7 +1502,7 @@
         <v>510802000</v>
       </c>
     </row>
-    <row r="85" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="4">
         <v>43373</v>
       </c>
@@ -1508,7 +1513,7 @@
         <v>579929000</v>
       </c>
     </row>
-    <row r="86" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="4">
         <v>43404</v>
       </c>
@@ -1519,7 +1524,7 @@
         <v>641839000</v>
       </c>
     </row>
-    <row r="87" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="4">
         <v>43434</v>
       </c>
@@ -1530,7 +1535,7 @@
         <v>694961000</v>
       </c>
     </row>
-    <row r="88" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="4">
         <v>43465</v>
       </c>
@@ -1541,7 +1546,7 @@
         <v>763374000</v>
       </c>
     </row>
-    <row r="89" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="4">
         <v>43524</v>
       </c>
@@ -1550,7 +1555,7 @@
         <v>118545000</v>
       </c>
     </row>
-    <row r="90" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="4">
         <v>43555</v>
       </c>
@@ -1561,7 +1566,7 @@
         <v>192259000</v>
       </c>
     </row>
-    <row r="91" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="4">
         <v>43585</v>
       </c>
@@ -1572,7 +1577,7 @@
         <v>264917000</v>
       </c>
     </row>
-    <row r="92" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="4">
         <v>43616</v>
       </c>
@@ -1583,7 +1588,7 @@
         <v>335455000</v>
       </c>
     </row>
-    <row r="93" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="4">
         <v>43646</v>
       </c>
@@ -1594,7 +1599,7 @@
         <v>406943000</v>
       </c>
     </row>
-    <row r="94" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="4">
         <v>43677</v>
       </c>
@@ -1605,7 +1610,7 @@
         <v>483876000</v>
       </c>
     </row>
-    <row r="95" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="95" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="4">
         <v>43708</v>
       </c>
@@ -1616,7 +1621,7 @@
         <v>558331000</v>
       </c>
     </row>
-    <row r="96" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="4">
         <v>43738</v>
       </c>
@@ -1627,7 +1632,7 @@
         <v>634499000</v>
       </c>
     </row>
-    <row r="97" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="97" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="4">
         <v>43769</v>
       </c>
@@ -1638,7 +1643,7 @@
         <v>711600000</v>
       </c>
     </row>
-    <row r="98" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="98" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="4">
         <v>43799</v>
       </c>
@@ -1649,7 +1654,7 @@
         <v>786440000</v>
       </c>
     </row>
-    <row r="99" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="99" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="4">
         <v>43830</v>
       </c>
@@ -1660,7 +1665,7 @@
         <v>844356000</v>
       </c>
     </row>
-    <row r="100" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="100" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="4">
         <v>43890</v>
       </c>
@@ -1669,7 +1674,7 @@
         <v>111190000</v>
       </c>
     </row>
-    <row r="101" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="101" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="4">
         <v>43921</v>
       </c>
@@ -1680,7 +1685,7 @@
         <v>187902000</v>
       </c>
     </row>
-    <row r="102" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="102" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="4">
         <v>43951</v>
       </c>
@@ -1691,7 +1696,7 @@
         <v>262739000</v>
       </c>
     </row>
-    <row r="103" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="103" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="4">
         <v>43982</v>
       </c>
@@ -1702,7 +1707,7 @@
         <v>336967000</v>
       </c>
     </row>
-    <row r="104" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="104" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="4">
         <v>44012</v>
       </c>
@@ -1713,7 +1718,7 @@
         <v>413953000</v>
       </c>
     </row>
-    <row r="105" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="105" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="4">
         <v>44043</v>
       </c>
@@ -1724,7 +1729,7 @@
         <v>486444000</v>
       </c>
     </row>
-    <row r="106" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="106" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="4">
         <v>44074</v>
       </c>
@@ -1735,7 +1740,7 @@
         <v>562179000</v>
       </c>
     </row>
-    <row r="107" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="107" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="4">
         <v>44104</v>
       </c>
@@ -1746,7 +1751,7 @@
         <v>636078000</v>
       </c>
     </row>
-    <row r="108" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="108" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="4">
         <v>44135</v>
       </c>
@@ -1757,7 +1762,7 @@
         <v>714506000</v>
       </c>
     </row>
-    <row r="109" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="109" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="4">
         <v>44165</v>
       </c>
@@ -1768,7 +1773,7 @@
         <v>789227000</v>
       </c>
     </row>
-    <row r="110" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="110" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="4">
         <v>44196</v>
       </c>
@@ -1779,7 +1784,7 @@
         <v>866717000</v>
       </c>
     </row>
-    <row r="111" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="111" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="4">
         <v>44255</v>
       </c>
@@ -1788,7 +1793,7 @@
         <v>129292000</v>
       </c>
     </row>
-    <row r="112" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="112" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="4">
         <v>44286</v>
       </c>
@@ -1799,7 +1804,7 @@
         <v>234549000</v>
       </c>
     </row>
-    <row r="113" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="113" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="4">
         <v>44316</v>
       </c>
@@ -1810,7 +1815,7 @@
         <v>322744000</v>
       </c>
     </row>
-    <row r="114" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="114" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="4">
         <v>44347</v>
       </c>
@@ -1821,7 +1826,7 @@
         <v>405782000</v>
       </c>
     </row>
-    <row r="115" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="115" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="4">
         <v>44377</v>
       </c>
@@ -1832,7 +1837,7 @@
         <v>490811000</v>
       </c>
     </row>
-    <row r="116" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="116" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="4">
         <v>44408</v>
       </c>
@@ -1843,7 +1848,7 @@
         <v>570180000</v>
       </c>
     </row>
-    <row r="117" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="117" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="4">
         <v>44439</v>
       </c>
@@ -1854,7 +1859,7 @@
         <v>658362000</v>
       </c>
     </row>
-    <row r="118" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="118" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="4">
         <v>44469</v>
       </c>
@@ -1865,7 +1870,7 @@
         <v>743368000</v>
       </c>
     </row>
-    <row r="119" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="119" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" s="4">
         <v>44500</v>
       </c>
@@ -1876,7 +1881,7 @@
         <v>823111000</v>
       </c>
     </row>
-    <row r="120" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="120" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" s="4">
         <v>44530</v>
       </c>
@@ -1887,7 +1892,7 @@
         <v>901441000</v>
       </c>
     </row>
-    <row r="121" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="121" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" s="4">
         <v>44561</v>
       </c>
@@ -1898,7 +1903,7 @@
         <v>980528000</v>
       </c>
     </row>
-    <row r="122" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="122" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" s="4">
         <v>44620</v>
       </c>
@@ -1907,7 +1912,7 @@
         <v>155757000</v>
       </c>
     </row>
-    <row r="123" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="123" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123" s="4">
         <v>44651</v>
       </c>
@@ -1918,7 +1923,7 @@
         <v>255558000</v>
       </c>
     </row>
-    <row r="124" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="124" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" s="4">
         <v>44681</v>
       </c>
@@ -1929,7 +1934,7 @@
         <v>330794000</v>
       </c>
     </row>
-    <row r="125" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="125" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" s="4">
         <v>44712</v>
       </c>
@@ -1940,7 +1945,7 @@
         <v>423883000</v>
       </c>
     </row>
-    <row r="126" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="126" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" s="4">
         <v>44742</v>
       </c>
@@ -1951,7 +1956,7 @@
         <v>501211000</v>
       </c>
     </row>
-    <row r="127" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="127" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" s="4">
         <v>44773</v>
       </c>
@@ -1962,7 +1967,7 @@
         <v>572318000</v>
       </c>
     </row>
-    <row r="128" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="128" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" s="4">
         <v>44804</v>
       </c>
@@ -1973,7 +1978,7 @@
         <v>652626000</v>
       </c>
     </row>
-    <row r="129" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="129" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" s="4">
         <v>44834</v>
       </c>
@@ -1984,7 +1989,7 @@
         <v>731863000</v>
       </c>
     </row>
-    <row r="130" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="130" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" s="4">
         <v>44865</v>
       </c>
@@ -1995,7 +2000,7 @@
         <v>809866000</v>
       </c>
     </row>
-    <row r="131" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="131" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" s="4">
         <v>44895</v>
       </c>
@@ -2006,7 +2011,7 @@
         <v>889046000</v>
       </c>
     </row>
-    <row r="132" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="132" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" s="4">
         <v>44926</v>
       </c>
@@ -2017,7 +2022,7 @@
         <v>967873000</v>
       </c>
     </row>
-    <row r="133" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="133" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A133" s="4">
         <v>44985</v>
       </c>
@@ -2026,7 +2031,7 @@
         <v>150353000</v>
       </c>
     </row>
-    <row r="134" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="134" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A134" s="4">
         <v>45016</v>
       </c>
@@ -2037,7 +2042,7 @@
         <v>243267000</v>
       </c>
     </row>
-    <row r="135" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="135" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A135" s="4">
         <v>45046</v>
       </c>
@@ -2048,7 +2053,7 @@
         <v>314382000</v>
       </c>
     </row>
-    <row r="136" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="136" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A136" s="4">
         <v>45077</v>
       </c>
@@ -2059,7 +2064,7 @@
         <v>391352000</v>
       </c>
     </row>
-    <row r="137" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="137" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A137" s="4">
         <v>45107</v>
       </c>
@@ -2070,7 +2075,7 @@
         <v>476759000</v>
       </c>
     </row>
-    <row r="138" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="138" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A138" s="4">
         <v>45138</v>
       </c>
@@ -2081,7 +2086,7 @@
         <v>566797000</v>
       </c>
     </row>
-    <row r="139" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="139" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A139" s="4">
         <v>45169</v>
       </c>
@@ -2092,7 +2097,7 @@
         <v>659169000</v>
       </c>
     </row>
-    <row r="140" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="140" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A140" s="4">
         <v>45199</v>
       </c>
@@ -2103,7 +2108,7 @@
         <v>742766000</v>
       </c>
     </row>
-    <row r="141" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="141" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A141" s="4">
         <v>45230</v>
       </c>
@@ -2114,9 +2119,25 @@
         <v>825758000</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="142" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A142" s="4">
+        <v>45260</v>
+      </c>
+      <c r="B142" s="5">
+        <v>8556.7999999999993</v>
+      </c>
+      <c r="C142" s="5">
+        <v>904027000</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A144" s="6" t="s">
         <v>10</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A145" s="6" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/steel/data/up-stream/铁矿石/铁矿石产量.xlsx
+++ b/steel/data/up-stream/铁矿石/铁矿石产量.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Document\Project\ffa\steel\data\up-stream\铁矿石\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\Projects\ffa\steel\data\up-stream\铁矿石\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC095154-D86D-4490-B9E2-C1097865FD25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E4E7AD5-D055-463F-9B3E-576358ECFA17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{1B3413B7-895E-493B-9FF4-9973EBBB1A4C}"/>
+    <workbookView xWindow="1837" yWindow="2213" windowWidth="28800" windowHeight="14685" xr2:uid="{1B3413B7-895E-493B-9FF4-9973EBBB1A4C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -41,10 +41,10 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>FUDIAN</author>
+    <author>howard</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{DD6071F8-9A56-4718-91D0-A0F0B00250ED}">
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{DB25AC9A-5BC6-46A8-A6F7-BEAA149DE738}">
       <text>
         <r>
           <rPr>
@@ -55,7 +55,7 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>yVjpCgZpNvOHlEoAN60+iXcNR8qcjD2afR3U+XlDrUTEX5W5KWYQZl2WlS6znR8JdtRv8fy9hcGzGgX1t8jwbDwAx0EUQZsw3ZWNu8RJYhGO4TcQ9l1JkQHbe3Y9+FG0Tmzb5nAqIClWWKfYkQKr3HY3DNkUELEitQOt11rUEoTssMa5+fEiCev4K2/Iu15NwcYCZvRYEoAszdi582S6/Wpf0HPZFRJURz1OtHHZqd46aMQmND4ndUnFhuKGiqfxsovRYzpE9452sueSEzDiO8lHlfx27DJUQb+LLLVdOl5oatTTl386x4oyHlwOwG5b9Uau6kpVlyCdo2z/f0LD5wVzhQL5TCEY2d4J/LqzQ2aFtvZ0Qhi4D7z/XCRIkbKGS7soU2FusNQrf76mQpCGYmN46X/1qc0tbaE15Q7StJDyZ8S9PA/INC/CNm+wExg5x1Rp9nMclzb4dndb8QNeJVtgVxUOqNpgr+1XBvVjRXh6h/0MdQKjuJYgQ2IA8RaxzMeQM7FrOk12acK3CGQL5KAYJgmaK+KksqvswjUHiQw7gMP35gq3FyZ+wgzPy4yTCbwr3ij0j7xnOwWBOJv9S8FhwO66C+5bD57uDkiYmGXx6H7z5cyxrd/UxcOxK2rm6U5IbCNh8R1WDYcKk2A5qINaf6YjLajW+OUqtTFJoOxrLABkh4a4yH15aM+voQmLGHtUeaJPEM44lZVIT/NhWt7DzM7pQirXnfLDrQOJzCjoJDCrw0qVzXKJ7++IDFFTvNvEF2oFqa/1LF58pItj/z1k5YyV8ru2wlBXaUbyHE/svFHG5iIsMhqaDDq5JgoW4rv6IVMS72fHMxkia8WvnnliKorRalEFChKRTV7OjqXJb3DE/VO682eBlKQx8KpKbs/qGEJz1bjICKnLyCE4LXCfk/VDkEJ2Lvon0FLc6Q24oiBCFPdL79g3FwYv81iRZuloWmJDGW165FY1XuYJwtS9fXI1ow6yE7Co55qJXmd+B60J2fzkgME1r479sijngp1HejglhvjFGMBhxtqG73rCSZzwmLvFsJBCy5DIqTxlnQe6Fx2vU1uccBHDZm3U8g7A77WRLSjp9wztyMMlvADH71KjeA+5lk0RltZg6C/0P6Ot2VLLabtNsR2p/BYKrvIJdHffIFqYxM82SAZUtkMOXiqS16hgncYybVbZJi+I6MCsmtIwxFCBbyadrQEsvp71s335pkCUEO8gQE0awiPfQEkXXR3P5F1trZWKkq0tdT0rUp92EJHyfhGSfRXrOahG2EG27TZnmrkWXMwkLjlNQiMe+mp89Rz2noTWUsjedF5aUsM5Z+UuhBrb9dHLyB/9L6XIAtLmwGseaXVFsmJ8aMaaD29+H+/orEMdi7DKaXu8PdGIvQHiLQiqU/OPJn9ttvMyNQdecRfcKddxAG1SIb//KXl9OsT8Y5m+3FHc9gRn+F8KZ+UURg5TZvcW0wGyNTv6Iy35syoBU5cC2zngSWHwLeR4EPEDRROjURSW5cqxgoRW/muvARq0tR/g6SJyO3+e0m5fH42ZpHU6B5g69bqONWUMo0tulzyRjjKbZDkqP5etJg8RZI+nuPjU1TWcN6pVfZFc1pGde+0NIgy6dL4plzyDEzCHB/eIcXe6MhJmeNDqsuXjna12PfRXuLlNkpTXL0FhogJo+1xao56ezTsd4WyoRiw7i8nmU6dEk1Asf34AHywfJWdLxaCfH/WLwBYys3DmSlb7LDPkKSdq+lRPi0pBocxBBPXbSxgo6aQ8cq7tdoAbOKrKeCrBvPlasrJ/4HfmPSwRafGUOlFvtINnCPYdOBJNtmgQ+Tk9mDkJilVsWvTCEIaW/Z4bEvIHzx0oEimJ6MO1GWaojDpFv/wanbBGXgp4J80qcU2q8Vo9KN5Tlv5PLsw4oLpZ/4OSzOgK1oKPoZpWpZIIMmfvO/yvfYz3zU+QIBc6JsCj0U7ZxCAWvnE1zPafjALut41WqV6p4OAn0+Cq0eK5xTDbD8+jPp9VzG0FSwR2VoFVMQh+31EAgfQS4BSIYng/udejpxyqUgTq5bi19ml6n/gojtoyytdcAeemkFaIroHZZsVrUaH5ZMzpM37bE2nUo/kWVO2Y6gDmfUp70mROO3x8vh7TgJGrIzsFa/NyDfCLZZqg3Nr7FZFB5St3Vo99IgP+Y8YfaNOlaV0hX78vGKioPQUl3OVat4e7WiHs+xzhDWCNXBB6XRgKAiDV8MaLckX5PYrKI4Bi/UGgWgwHo0GrK6kO94/FAtLzuprxO64/G6m8nFB9XLQCdK7Bk4b3NuJZeZ5WU95Ttkt0Xw6z8NI3PrwF46ui</t>
+          <t>yVjpCgZpNvPZnfieGxhyTUxAtvPXwJeR2ttoZOZJPj2Q4gg+7aO+wveCXL7lF2nsJjimQFSfOOJbHFAap7xMKw8+q3d7Sp0kbjvzmFg8LEwOV3tJZTNI8DDkfS6Ww2rVcO50Px2Z2Vn2+sQbgcNsXLF21sI4/y88xGzc7afOi8ccOf9nhMSAyLEjwNqBEnzRjABnYduvMxbupXYn9j/Wns8oeT+6T4TJYmK1KaCnDdSIShI0fdLPC6zRJglr9lKo8Yz1IXlVXfj61JcJtF4A2FGKg7wRGEEudUkoXii71Uj+6jfZMibhcBLI2ELb0PM6dr2LYnKl5XVkFn0K4A658WeGPohui4NAuCHn8OqvLwYWdvhKxo0c4JlGFT8eTquXjLyTaj6Y65cg7tu7fyEgEXwTetAjQsYEzCeuq8JJSBSDaagObuat5LFRMudD6bt8bpTRIeT+WYrhb49fzz0Iy71LdlhrgBVqlmNAAVlfeLT1RQC2Y6mgoilX1H+GYBweyCbb292nrkWCULAKichcVr2wc9QEjWSGW/FcB9fDfOOHaSEzHbvYsU6maYJu88EJaQ7yc3Gc4qtSd4Kw6iiQsmKJjZh/WbUMiXp8Naag603i+6LmTOtN7Pgia/bEWjB1YRMVlNXyaWtcOxLWJ8/QlSzaygWMUXN72vSi3WUTb2Y+VWBNknFwp9/peCl+mSQvX30VG8BSkzy33OAoSZHsgM9sFHZ/KPjIHWVrLYNWO1ES+d2zZB21oAJ+plwZ/taiHSSG6w9129RHv82Kh1Muf9Z/4xauT5NFMibXLn5AcAVBYN8MGser460ltAWQi2txDhu5yV6V2j/Tl86/77PTWvVmPLY0JHqi2VXlipxt+FBHaxNXOd8GPsDq/pXsWsqwaXFOioGggzi3kwDmHxalZ47m1z9zk0s22t8AQy6SuGWy9dlOTABCNkGb/I7UXvkGfwu/ab0fumGmcbwPXLSal1D1zldbS+R8VApR9NzPkXdCZQXPjlbuf8/IWhCh+fs3ayPX23qsqnKJe+Jpt2/SyG4syMC3dNqN+4aMdOPMptcrd5xU0kA35Gx0MEq5kheWZIYrIRet3t7zhmzKYdRSjAQiWX94xmalF/vLwbA7cP9Um5MG0FYuUprsHbPd+LWVOvoIm3NhsbHovOsNyzCTRThcEbrRWdd07vNWyDTIAP0Tu5hNF1blBG5fPYmEysiF5//uuk8b7oCouFYHHOSzybofjMHORK5rHpmaROPyJo8TMQhzFl6DyCRqgDdsFj7VpCLogMwcI/W90H7L7MS1zuQ0unsehjsPjy6EeNUGKev39wDdBt73un2Hpme5nWK4KB3+W4gBBGC08q3x8K87q4EtrGVlL4kRmXYj2lNxHdeTrHbNeMlQIwSZs0va84HePtyPLwiSyI4bhdRFfnBouwRC69gHzgujRyDvcNNyIVdvlCQXndA4W5QTh1eaZEO1nmxSrFPhbBsGfOwikZrZ+hWp+Be+R84DC9u4ML6IaaUxiUiAouk3Ls16Ew/YI5/KUG57OYksjYcaTbcRTaH+AdaHPfcfnfQWwGqXir+9bgVJes7sqQgj9w==</t>
         </r>
       </text>
     </comment>
@@ -287,9 +287,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 主题">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -327,7 +327,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -433,7 +433,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -575,7 +575,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -585,23 +585,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13501A87-3F4F-428E-BAF6-0356460FD2E9}">
   <dimension ref="A1:C145"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A99" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A113" workbookViewId="0">
       <selection activeCell="C145" sqref="C145"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="18.875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.9296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="19.06640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="str">
         <f>[1]!EM_EDB_N("2011-08-24","2023-12-01","Columns=Name,Frequency,Unit,Source&amp;Order=2&amp;DateFormat=1&amp;Chart=2&amp;ClearArea=NULL&amp;CellFormat=1&amp;Layout=0")</f>
         <v>宏观数据</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -612,7 +612,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
@@ -623,7 +623,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="2" t="s">
         <v>5</v>
       </c>
@@ -634,7 +634,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
@@ -645,7 +645,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="4">
         <v>40786</v>
       </c>
@@ -656,7 +656,7 @@
         <v>818929108.92999995</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="4">
         <v>40816</v>
       </c>
@@ -667,7 +667,7 @@
         <v>946230054.46000004</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="4">
         <v>40847</v>
       </c>
@@ -678,7 +678,7 @@
         <v>1078484021.77</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="4">
         <v>40877</v>
       </c>
@@ -689,7 +689,7 @@
         <v>1205507510.79</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="4">
         <v>40908</v>
       </c>
@@ -700,7 +700,7 @@
         <v>1326939885.97</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="4">
         <v>40939</v>
       </c>
@@ -711,7 +711,7 @@
         <v>71515192.900000095</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="4">
         <v>40968</v>
       </c>
@@ -722,7 +722,7 @@
         <v>153082084.83000001</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="4">
         <v>40999</v>
       </c>
@@ -733,7 +733,7 @@
         <v>259600290.91</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="4">
         <v>41029</v>
       </c>
@@ -744,7 +744,7 @@
         <v>363247699.89999998</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="4">
         <v>41060</v>
       </c>
@@ -755,7 +755,7 @@
         <v>475498908.52999997</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="4">
         <v>41090</v>
       </c>
@@ -766,7 +766,7 @@
         <v>599872128.35000002</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="4">
         <v>41121</v>
       </c>
@@ -777,7 +777,7 @@
         <v>715286846.00999999</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="4">
         <v>41152</v>
       </c>
@@ -788,7 +788,7 @@
         <v>839019949.38</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="4">
         <v>41182</v>
       </c>
@@ -799,7 +799,7 @@
         <v>968106110.01999998</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="4">
         <v>41213</v>
       </c>
@@ -810,7 +810,7 @@
         <v>1091143550.8800001</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="4">
         <v>41243</v>
       </c>
@@ -821,7 +821,7 @@
         <v>1205710880.29</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="4">
         <v>41274</v>
       </c>
@@ -832,7 +832,7 @@
         <v>1309636100.78</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="4">
         <v>41333</v>
       </c>
@@ -841,7 +841,7 @@
         <v>175174710.69999999</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="4">
         <v>41364</v>
       </c>
@@ -852,7 +852,7 @@
         <v>288770814.98000002</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A25" s="4">
         <v>41394</v>
       </c>
@@ -863,7 +863,7 @@
         <v>398013288.95999998</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A26" s="4">
         <v>41425</v>
       </c>
@@ -874,7 +874,7 @@
         <v>516000000</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A27" s="4">
         <v>41455</v>
       </c>
@@ -885,7 +885,7 @@
         <v>646397552.10000002</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="4">
         <v>41486</v>
       </c>
@@ -896,7 +896,7 @@
         <v>772563193.46000099</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="4">
         <v>41517</v>
       </c>
@@ -907,7 +907,7 @@
         <v>904208306.96999896</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="4">
         <v>41547</v>
       </c>
@@ -918,7 +918,7 @@
         <v>1043415214.1</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="4">
         <v>41578</v>
       </c>
@@ -929,7 +929,7 @@
         <v>1178339208.8599999</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32" s="4">
         <v>41608</v>
       </c>
@@ -940,7 +940,7 @@
         <v>1317196399.8399999</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33" s="4">
         <v>41639</v>
       </c>
@@ -951,7 +951,7 @@
         <v>1451010652.6300001</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34" s="4">
         <v>41698</v>
       </c>
@@ -960,7 +960,7 @@
         <v>183273371.81999999</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35" s="4">
         <v>41729</v>
       </c>
@@ -971,7 +971,7 @@
         <v>307681413.29000002</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36" s="4">
         <v>41759</v>
       </c>
@@ -982,7 +982,7 @@
         <v>427804183.62</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="4">
         <v>41790</v>
       </c>
@@ -993,7 +993,7 @@
         <v>568481794.30999994</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38" s="4">
         <v>41820</v>
       </c>
@@ -1004,7 +1004,7 @@
         <v>710598775.96000004</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39" s="4">
         <v>41851</v>
       </c>
@@ -1015,7 +1015,7 @@
         <v>849400019.65999997</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40" s="4">
         <v>41882</v>
       </c>
@@ -1026,7 +1026,7 @@
         <v>986041186.61000001</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="4">
         <v>41912</v>
       </c>
@@ -1037,7 +1037,7 @@
         <v>1123419000</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="4">
         <v>41943</v>
       </c>
@@ -1048,7 +1048,7 @@
         <v>1257901235.0599999</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A43" s="4">
         <v>41973</v>
       </c>
@@ -1059,7 +1059,7 @@
         <v>1386402000</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A44" s="4">
         <v>42004</v>
       </c>
@@ -1070,7 +1070,7 @@
         <v>1514237743.54</v>
       </c>
     </row>
-    <row r="45" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A45" s="4">
         <v>42063</v>
       </c>
@@ -1079,7 +1079,7 @@
         <v>175534008.53999999</v>
       </c>
     </row>
-    <row r="46" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A46" s="4">
         <v>42094</v>
       </c>
@@ -1090,7 +1090,7 @@
         <v>281154211.02999997</v>
       </c>
     </row>
-    <row r="47" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A47" s="4">
         <v>42124</v>
       </c>
@@ -1101,7 +1101,7 @@
         <v>384167941.42000002</v>
       </c>
     </row>
-    <row r="48" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A48" s="4">
         <v>42155</v>
       </c>
@@ -1112,7 +1112,7 @@
         <v>502444112.88999999</v>
       </c>
     </row>
-    <row r="49" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A49" s="4">
         <v>42185</v>
       </c>
@@ -1123,7 +1123,7 @@
         <v>634898749.48000002</v>
       </c>
     </row>
-    <row r="50" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A50" s="4">
         <v>42216</v>
       </c>
@@ -1134,7 +1134,7 @@
         <v>760985227.46000004</v>
       </c>
     </row>
-    <row r="51" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A51" s="4">
         <v>42247</v>
       </c>
@@ -1145,7 +1145,7 @@
         <v>885138413.98000002</v>
       </c>
     </row>
-    <row r="52" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A52" s="4">
         <v>42277</v>
       </c>
@@ -1156,7 +1156,7 @@
         <v>1015999061.86</v>
       </c>
     </row>
-    <row r="53" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A53" s="4">
         <v>42308</v>
       </c>
@@ -1167,7 +1167,7 @@
         <v>1135254000</v>
       </c>
     </row>
-    <row r="54" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A54" s="4">
         <v>42338</v>
       </c>
@@ -1178,7 +1178,7 @@
         <v>1252268000</v>
       </c>
     </row>
-    <row r="55" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A55" s="4">
         <v>42369</v>
       </c>
@@ -1189,7 +1189,7 @@
         <v>1381288000</v>
       </c>
     </row>
-    <row r="56" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A56" s="4">
         <v>42429</v>
       </c>
@@ -1198,7 +1198,7 @@
         <v>161875000</v>
       </c>
     </row>
-    <row r="57" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A57" s="4">
         <v>42460</v>
       </c>
@@ -1209,7 +1209,7 @@
         <v>261559000</v>
       </c>
     </row>
-    <row r="58" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A58" s="4">
         <v>42490</v>
       </c>
@@ -1220,7 +1220,7 @@
         <v>365072000</v>
       </c>
     </row>
-    <row r="59" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A59" s="4">
         <v>42521</v>
       </c>
@@ -1231,7 +1231,7 @@
         <v>471987000</v>
       </c>
     </row>
-    <row r="60" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A60" s="4">
         <v>42551</v>
       </c>
@@ -1242,7 +1242,7 @@
         <v>594038000</v>
       </c>
     </row>
-    <row r="61" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A61" s="4">
         <v>42582</v>
       </c>
@@ -1253,7 +1253,7 @@
         <v>709778000</v>
       </c>
     </row>
-    <row r="62" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A62" s="4">
         <v>42613</v>
       </c>
@@ -1264,7 +1264,7 @@
         <v>824700000</v>
       </c>
     </row>
-    <row r="63" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A63" s="4">
         <v>42643</v>
       </c>
@@ -1275,7 +1275,7 @@
         <v>941208815.39999998</v>
       </c>
     </row>
-    <row r="64" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A64" s="4">
         <v>42674</v>
       </c>
@@ -1286,7 +1286,7 @@
         <v>1059996551.8</v>
       </c>
     </row>
-    <row r="65" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A65" s="4">
         <v>42704</v>
       </c>
@@ -1297,7 +1297,7 @@
         <v>1162343000</v>
       </c>
     </row>
-    <row r="66" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A66" s="4">
         <v>42735</v>
       </c>
@@ -1308,7 +1308,7 @@
         <v>1280893000</v>
       </c>
     </row>
-    <row r="67" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A67" s="4">
         <v>42794</v>
       </c>
@@ -1317,7 +1317,7 @@
         <v>184158375</v>
       </c>
     </row>
-    <row r="68" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A68" s="4">
         <v>42825</v>
       </c>
@@ -1328,7 +1328,7 @@
         <v>298190000</v>
       </c>
     </row>
-    <row r="69" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A69" s="4">
         <v>42855</v>
       </c>
@@ -1339,7 +1339,7 @@
         <v>400902835.30000001</v>
       </c>
     </row>
-    <row r="70" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A70" s="4">
         <v>42886</v>
       </c>
@@ -1350,7 +1350,7 @@
         <v>508527000</v>
       </c>
     </row>
-    <row r="71" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A71" s="4">
         <v>42916</v>
       </c>
@@ -1361,7 +1361,7 @@
         <v>636623000</v>
       </c>
     </row>
-    <row r="72" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A72" s="4">
         <v>42947</v>
       </c>
@@ -1372,7 +1372,7 @@
         <v>751453000</v>
       </c>
     </row>
-    <row r="73" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A73" s="4">
         <v>42978</v>
       </c>
@@ -1383,7 +1383,7 @@
         <v>863879000</v>
       </c>
     </row>
-    <row r="74" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A74" s="4">
         <v>43008</v>
       </c>
@@ -1394,7 +1394,7 @@
         <v>975684000</v>
       </c>
     </row>
-    <row r="75" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A75" s="4">
         <v>43039</v>
       </c>
@@ -1405,7 +1405,7 @@
         <v>1081684000</v>
       </c>
     </row>
-    <row r="76" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A76" s="4">
         <v>43069</v>
       </c>
@@ -1416,7 +1416,7 @@
         <v>1160108335.8</v>
       </c>
     </row>
-    <row r="77" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A77" s="4">
         <v>43100</v>
       </c>
@@ -1427,7 +1427,7 @@
         <v>1229373000</v>
       </c>
     </row>
-    <row r="78" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A78" s="4">
         <v>43159</v>
       </c>
@@ -1436,7 +1436,7 @@
         <v>123464000</v>
       </c>
     </row>
-    <row r="79" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A79" s="4">
         <v>43190</v>
       </c>
@@ -1447,7 +1447,7 @@
         <v>189462000</v>
       </c>
     </row>
-    <row r="80" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A80" s="4">
         <v>43220</v>
       </c>
@@ -1458,7 +1458,7 @@
         <v>255001000</v>
       </c>
     </row>
-    <row r="81" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A81" s="4">
         <v>43251</v>
       </c>
@@ -1469,7 +1469,7 @@
         <v>321258000</v>
       </c>
     </row>
-    <row r="82" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A82" s="4">
         <v>43281</v>
       </c>
@@ -1480,7 +1480,7 @@
         <v>388221000</v>
       </c>
     </row>
-    <row r="83" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A83" s="4">
         <v>43312</v>
       </c>
@@ -1491,7 +1491,7 @@
         <v>447217000</v>
       </c>
     </row>
-    <row r="84" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A84" s="4">
         <v>43343</v>
       </c>
@@ -1502,7 +1502,7 @@
         <v>510802000</v>
       </c>
     </row>
-    <row r="85" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A85" s="4">
         <v>43373</v>
       </c>
@@ -1513,7 +1513,7 @@
         <v>579929000</v>
       </c>
     </row>
-    <row r="86" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A86" s="4">
         <v>43404</v>
       </c>
@@ -1524,7 +1524,7 @@
         <v>641839000</v>
       </c>
     </row>
-    <row r="87" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A87" s="4">
         <v>43434</v>
       </c>
@@ -1535,7 +1535,7 @@
         <v>694961000</v>
       </c>
     </row>
-    <row r="88" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A88" s="4">
         <v>43465</v>
       </c>
@@ -1546,7 +1546,7 @@
         <v>763374000</v>
       </c>
     </row>
-    <row r="89" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A89" s="4">
         <v>43524</v>
       </c>
@@ -1555,7 +1555,7 @@
         <v>118545000</v>
       </c>
     </row>
-    <row r="90" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A90" s="4">
         <v>43555</v>
       </c>
@@ -1566,7 +1566,7 @@
         <v>192259000</v>
       </c>
     </row>
-    <row r="91" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A91" s="4">
         <v>43585</v>
       </c>
@@ -1577,7 +1577,7 @@
         <v>264917000</v>
       </c>
     </row>
-    <row r="92" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A92" s="4">
         <v>43616</v>
       </c>
@@ -1588,7 +1588,7 @@
         <v>335455000</v>
       </c>
     </row>
-    <row r="93" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A93" s="4">
         <v>43646</v>
       </c>
@@ -1599,7 +1599,7 @@
         <v>406943000</v>
       </c>
     </row>
-    <row r="94" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A94" s="4">
         <v>43677</v>
       </c>
@@ -1610,7 +1610,7 @@
         <v>483876000</v>
       </c>
     </row>
-    <row r="95" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A95" s="4">
         <v>43708</v>
       </c>
@@ -1621,7 +1621,7 @@
         <v>558331000</v>
       </c>
     </row>
-    <row r="96" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A96" s="4">
         <v>43738</v>
       </c>
@@ -1632,7 +1632,7 @@
         <v>634499000</v>
       </c>
     </row>
-    <row r="97" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A97" s="4">
         <v>43769</v>
       </c>
@@ -1643,7 +1643,7 @@
         <v>711600000</v>
       </c>
     </row>
-    <row r="98" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A98" s="4">
         <v>43799</v>
       </c>
@@ -1654,7 +1654,7 @@
         <v>786440000</v>
       </c>
     </row>
-    <row r="99" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A99" s="4">
         <v>43830</v>
       </c>
@@ -1665,7 +1665,7 @@
         <v>844356000</v>
       </c>
     </row>
-    <row r="100" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A100" s="4">
         <v>43890</v>
       </c>
@@ -1674,7 +1674,7 @@
         <v>111190000</v>
       </c>
     </row>
-    <row r="101" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A101" s="4">
         <v>43921</v>
       </c>
@@ -1685,7 +1685,7 @@
         <v>187902000</v>
       </c>
     </row>
-    <row r="102" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A102" s="4">
         <v>43951</v>
       </c>
@@ -1696,7 +1696,7 @@
         <v>262739000</v>
       </c>
     </row>
-    <row r="103" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A103" s="4">
         <v>43982</v>
       </c>
@@ -1707,7 +1707,7 @@
         <v>336967000</v>
       </c>
     </row>
-    <row r="104" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A104" s="4">
         <v>44012</v>
       </c>
@@ -1718,7 +1718,7 @@
         <v>413953000</v>
       </c>
     </row>
-    <row r="105" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A105" s="4">
         <v>44043</v>
       </c>
@@ -1729,7 +1729,7 @@
         <v>486444000</v>
       </c>
     </row>
-    <row r="106" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A106" s="4">
         <v>44074</v>
       </c>
@@ -1740,7 +1740,7 @@
         <v>562179000</v>
       </c>
     </row>
-    <row r="107" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A107" s="4">
         <v>44104</v>
       </c>
@@ -1751,7 +1751,7 @@
         <v>636078000</v>
       </c>
     </row>
-    <row r="108" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A108" s="4">
         <v>44135</v>
       </c>
@@ -1762,7 +1762,7 @@
         <v>714506000</v>
       </c>
     </row>
-    <row r="109" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A109" s="4">
         <v>44165</v>
       </c>
@@ -1773,7 +1773,7 @@
         <v>789227000</v>
       </c>
     </row>
-    <row r="110" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A110" s="4">
         <v>44196</v>
       </c>
@@ -1784,7 +1784,7 @@
         <v>866717000</v>
       </c>
     </row>
-    <row r="111" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A111" s="4">
         <v>44255</v>
       </c>
@@ -1793,7 +1793,7 @@
         <v>129292000</v>
       </c>
     </row>
-    <row r="112" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A112" s="4">
         <v>44286</v>
       </c>
@@ -1804,7 +1804,7 @@
         <v>234549000</v>
       </c>
     </row>
-    <row r="113" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A113" s="4">
         <v>44316</v>
       </c>
@@ -1815,7 +1815,7 @@
         <v>322744000</v>
       </c>
     </row>
-    <row r="114" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A114" s="4">
         <v>44347</v>
       </c>
@@ -1826,7 +1826,7 @@
         <v>405782000</v>
       </c>
     </row>
-    <row r="115" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A115" s="4">
         <v>44377</v>
       </c>
@@ -1837,7 +1837,7 @@
         <v>490811000</v>
       </c>
     </row>
-    <row r="116" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A116" s="4">
         <v>44408</v>
       </c>
@@ -1848,7 +1848,7 @@
         <v>570180000</v>
       </c>
     </row>
-    <row r="117" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A117" s="4">
         <v>44439</v>
       </c>
@@ -1859,7 +1859,7 @@
         <v>658362000</v>
       </c>
     </row>
-    <row r="118" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A118" s="4">
         <v>44469</v>
       </c>
@@ -1870,7 +1870,7 @@
         <v>743368000</v>
       </c>
     </row>
-    <row r="119" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A119" s="4">
         <v>44500</v>
       </c>
@@ -1881,7 +1881,7 @@
         <v>823111000</v>
       </c>
     </row>
-    <row r="120" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A120" s="4">
         <v>44530</v>
       </c>
@@ -1892,7 +1892,7 @@
         <v>901441000</v>
       </c>
     </row>
-    <row r="121" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A121" s="4">
         <v>44561</v>
       </c>
@@ -1903,7 +1903,7 @@
         <v>980528000</v>
       </c>
     </row>
-    <row r="122" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A122" s="4">
         <v>44620</v>
       </c>
@@ -1912,7 +1912,7 @@
         <v>155757000</v>
       </c>
     </row>
-    <row r="123" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A123" s="4">
         <v>44651</v>
       </c>
@@ -1923,7 +1923,7 @@
         <v>255558000</v>
       </c>
     </row>
-    <row r="124" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A124" s="4">
         <v>44681</v>
       </c>
@@ -1934,7 +1934,7 @@
         <v>330794000</v>
       </c>
     </row>
-    <row r="125" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A125" s="4">
         <v>44712</v>
       </c>
@@ -1945,7 +1945,7 @@
         <v>423883000</v>
       </c>
     </row>
-    <row r="126" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A126" s="4">
         <v>44742</v>
       </c>
@@ -1956,7 +1956,7 @@
         <v>501211000</v>
       </c>
     </row>
-    <row r="127" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A127" s="4">
         <v>44773</v>
       </c>
@@ -1967,7 +1967,7 @@
         <v>572318000</v>
       </c>
     </row>
-    <row r="128" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A128" s="4">
         <v>44804</v>
       </c>
@@ -1978,7 +1978,7 @@
         <v>652626000</v>
       </c>
     </row>
-    <row r="129" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A129" s="4">
         <v>44834</v>
       </c>
@@ -1989,7 +1989,7 @@
         <v>731863000</v>
       </c>
     </row>
-    <row r="130" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A130" s="4">
         <v>44865</v>
       </c>
@@ -2000,7 +2000,7 @@
         <v>809866000</v>
       </c>
     </row>
-    <row r="131" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A131" s="4">
         <v>44895</v>
       </c>
@@ -2011,7 +2011,7 @@
         <v>889046000</v>
       </c>
     </row>
-    <row r="132" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A132" s="4">
         <v>44926</v>
       </c>
@@ -2022,7 +2022,7 @@
         <v>967873000</v>
       </c>
     </row>
-    <row r="133" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A133" s="4">
         <v>44985</v>
       </c>
@@ -2031,7 +2031,7 @@
         <v>150353000</v>
       </c>
     </row>
-    <row r="134" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A134" s="4">
         <v>45016</v>
       </c>
@@ -2042,7 +2042,7 @@
         <v>243267000</v>
       </c>
     </row>
-    <row r="135" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A135" s="4">
         <v>45046</v>
       </c>
@@ -2053,7 +2053,7 @@
         <v>314382000</v>
       </c>
     </row>
-    <row r="136" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A136" s="4">
         <v>45077</v>
       </c>
@@ -2064,7 +2064,7 @@
         <v>391352000</v>
       </c>
     </row>
-    <row r="137" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A137" s="4">
         <v>45107</v>
       </c>
@@ -2075,7 +2075,7 @@
         <v>476759000</v>
       </c>
     </row>
-    <row r="138" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A138" s="4">
         <v>45138</v>
       </c>
@@ -2086,7 +2086,7 @@
         <v>566797000</v>
       </c>
     </row>
-    <row r="139" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A139" s="4">
         <v>45169</v>
       </c>
@@ -2097,7 +2097,7 @@
         <v>659169000</v>
       </c>
     </row>
-    <row r="140" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A140" s="4">
         <v>45199</v>
       </c>
@@ -2108,7 +2108,7 @@
         <v>742766000</v>
       </c>
     </row>
-    <row r="141" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A141" s="4">
         <v>45230</v>
       </c>
@@ -2119,7 +2119,7 @@
         <v>825758000</v>
       </c>
     </row>
-    <row r="142" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A142" s="4">
         <v>45260</v>
       </c>
@@ -2130,12 +2130,12 @@
         <v>904027000</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A144" s="6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A145" s="6" t="s">
         <v>11</v>
       </c>
